--- a/file/test_config.xlsx
+++ b/file/test_config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enyaozhang/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enyaozhang/IdeaProjects/excel2struct/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97B2C4AE-DDD5-DD4E-923B-22D57C975911}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF880595-4916-1044-8A54-A22C52E261AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17440" xr2:uid="{76F69E15-18DB-3C4D-B3FC-F1ABBEF2452E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,33 @@
   <si>
     <t>啊啊啊啊啊啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|3|4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|3|5</t>
+  </si>
+  <si>
+    <t>1|2|3|6</t>
+  </si>
+  <si>
+    <t>1|2|3|7</t>
+  </si>
+  <si>
+    <t>1|2|3|8</t>
+  </si>
+  <si>
+    <t>1|2|3|9</t>
   </si>
 </sst>
 </file>
@@ -448,15 +475,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE073D8-FFC4-934C-9EA6-C7D20E736388}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +496,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -486,8 +516,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -503,8 +536,11 @@
       <c r="E3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
@@ -520,8 +556,11 @@
       <c r="E4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
@@ -537,8 +576,11 @@
       <c r="E5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -554,8 +596,11 @@
       <c r="E6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
@@ -571,8 +616,11 @@
       <c r="E7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>6</v>
       </c>
@@ -587,6 +635,9 @@
       </c>
       <c r="E8">
         <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
